--- a/website_content_creation/authors/Emily_Smenderovac/Author_form.xlsx
+++ b/website_content_creation/authors/Emily_Smenderovac/Author_form.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmender\Documents\WET lab\WETlab_website\website_content_creation\Emily_Smenderovac\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmender\Documents\WET lab\WETlab_website\website_content_creation\authors\Emily_Smenderovac\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -134,10 +134,10 @@
     <t xml:space="preserve">Trained in microbial ecology and bioinformatic analysis of community datasets. </t>
   </si>
   <si>
-    <t>I completed my M.Sc. Forestry studying microbial community structures in coarse woody residues and harvesting impacted soils from sites in Ontario, Canada.  I enjoy R coding, troubleshooting and teaching, lab work and field work.</t>
-  </si>
-  <si>
     <t>WETlab Contributors from the GLFC</t>
+  </si>
+  <si>
+    <t>I completed my M.Sc. Forestry studying microbial community structures in coarse woody residues and harvesting impacted soils from sites in Ontario, Canada.  I enjoy R coding, troubleshooting and teaching, lab work and, field work.</t>
   </si>
 </sst>
 </file>
@@ -705,7 +705,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,7 +786,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -794,7 +794,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/website_content_creation/authors/Emily_Smenderovac/Author_form.xlsx
+++ b/website_content_creation/authors/Emily_Smenderovac/Author_form.xlsx
@@ -95,18 +95,12 @@
     <t>Forest Bioenergy Analyst</t>
   </si>
   <si>
-    <t>MSc Forestry</t>
-  </si>
-  <si>
     <t>Degree/Certification</t>
   </si>
   <si>
     <t>University of Toronto</t>
   </si>
   <si>
-    <t>BSc Microbiology (Co-op)</t>
-  </si>
-  <si>
     <t>University of Guelph</t>
   </si>
   <si>
@@ -138,6 +132,12 @@
   </si>
   <si>
     <t>I completed my M.Sc. Forestry studying microbial community structures in coarse woody residues and harvesting impacted soils from sites in Ontario, Canada.  I enjoy R coding, troubleshooting and teaching, lab work and, field work.</t>
+  </si>
+  <si>
+    <t>M.Sc. Forestry</t>
+  </si>
+  <si>
+    <t>B.Sc. Microbiology (Co-op)</t>
   </si>
 </sst>
 </file>
@@ -705,7 +705,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,12 +717,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -778,28 +778,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -811,7 +811,7 @@
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>6</v>
@@ -822,10 +822,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2">
         <v>2014</v>
@@ -833,10 +833,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1">
         <v>2012</v>
@@ -877,7 +877,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">

--- a/website_content_creation/authors/Emily_Smenderovac/Author_form.xlsx
+++ b/website_content_creation/authors/Emily_Smenderovac/Author_form.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>name</t>
   </si>
@@ -138,13 +138,19 @@
   </si>
   <si>
     <t>B.Sc. Microbiology (Co-op)</t>
+  </si>
+  <si>
+    <t>OrcID</t>
+  </si>
+  <si>
+    <t>0000-0001-6773-4808</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +166,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -393,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -421,6 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -702,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,79 +787,82 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B12" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-    </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>2014</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -857,32 +874,33 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="18"/>
-    </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+      <c r="B22" s="18"/>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B24" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
@@ -904,42 +922,46 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
     </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
     <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B23" r:id="rId3"/>
+    <hyperlink ref="B24" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website_content_creation/authors/Emily_Smenderovac/Author_form.xlsx
+++ b/website_content_creation/authors/Emily_Smenderovac/Author_form.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmender\Documents\WET lab\WETlab_website\website_content_creation\authors\Emily_Smenderovac\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmender\RProjects\GLFC-WET.github.io\website_content_creation\authors\Emily_Smenderovac\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -83,9 +83,6 @@
     <t>https://twitter.com/Smendero?lang=en</t>
   </si>
   <si>
-    <t>emily.smenderovac@canada.ca</t>
-  </si>
-  <si>
     <t>https://github.com/Smendero</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>0000-0001-6773-4808</t>
+  </si>
+  <si>
+    <t>emily.smenderovac@NRCan-RNCan.gc.ca</t>
   </si>
 </sst>
 </file>
@@ -425,6 +425,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -434,7 +435,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -719,7 +719,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,12 +731,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -752,7 +752,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -768,7 +768,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -776,7 +776,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -784,15 +784,15 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -800,40 +800,40 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>6</v>
@@ -844,10 +844,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2">
         <v>2014</v>
@@ -855,10 +855,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1">
         <v>2012</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="19"/>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
@@ -899,7 +899,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">

--- a/website_content_creation/authors/Emily_Smenderovac/Author_form.xlsx
+++ b/website_content_creation/authors/Emily_Smenderovac/Author_form.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmender\RProjects\GLFC-WET.github.io\website_content_creation\authors\Emily_Smenderovac\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Emily_Smenderovac/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_9F58FCFE6B42082187F4BA7F9550A8EFAFF5870A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DE76ED5-60F3-461F-8EF3-8D7B1BF88CA8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,9 +126,6 @@
     <t xml:space="preserve">Trained in microbial ecology and bioinformatic analysis of community datasets. </t>
   </si>
   <si>
-    <t>WETlab Contributors from the GLFC</t>
-  </si>
-  <si>
     <t>I completed my M.Sc. Forestry studying microbial community structures in coarse woody residues and harvesting impacted soils from sites in Ontario, Canada.  I enjoy R coding, troubleshooting and teaching, lab work and, field work.</t>
   </si>
   <si>
@@ -144,12 +142,15 @@
   </si>
   <si>
     <t>emily.smenderovac@NRCan-RNCan.gc.ca</t>
+  </si>
+  <si>
+    <t>Watershed Ecology Team</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -715,31 +716,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -747,7 +748,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
@@ -755,7 +756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -763,15 +764,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
@@ -779,7 +780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -787,15 +788,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
@@ -803,35 +804,35 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
@@ -842,9 +843,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -853,9 +854,9 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>24</v>
@@ -864,29 +865,29 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="19"/>
     </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -894,7 +895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
@@ -902,55 +903,55 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
   </sheetData>
@@ -959,9 +960,9 @@
     <mergeCell ref="A22:B22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B24" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B24" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website_content_creation/authors/Emily_Smenderovac/Author_form.xlsx
+++ b/website_content_creation/authors/Emily_Smenderovac/Author_form.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Emily_Smenderovac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_9F58FCFE6B42082187F4BA7F9550A8EFAFF5870A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DE76ED5-60F3-461F-8EF3-8D7B1BF88CA8}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_9F58FCFE6B42082187F4BA7F9550A8EFAFF5870A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A02A401A-296E-4BD3-9E35-EB95583C21B8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>https://www.linkedin.com/in/emily-smenderovac-22889519/</t>
   </si>
   <si>
-    <t>Forest Bioenergy Analyst</t>
-  </si>
-  <si>
     <t>Degree/Certification</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Watershed Ecology Team</t>
+  </si>
+  <si>
+    <t>Watershed Ecologist</t>
   </si>
 </sst>
 </file>
@@ -424,8 +424,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -720,7 +720,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,12 +732,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -753,7 +753,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -769,7 +769,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -790,10 +790,10 @@
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -801,28 +801,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -834,7 +834,7 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>6</v>
@@ -845,10 +845,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2">
         <v>2014</v>
@@ -856,10 +856,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1">
         <v>2012</v>
@@ -900,7 +900,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
